--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +54,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gh_2e3662b8817d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
+    <t>公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -454,8 +458,19 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -58,11 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
+    <t>桃花潭李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS-UKIYOE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,19 +458,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>IRIS-UKIYOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46311295@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +91,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,14 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,9 +440,10 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +459,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,8 +473,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,12 +486,19 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -9,69 +9,49 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
   </bookViews>
   <sheets>
-    <sheet name="最新文章" sheetId="1" r:id="rId1"/>
-    <sheet name="历史文章" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最新文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发表时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>时寒冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shihanbing2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46311295@qq.com</t>
   </si>
   <si>
     <t>桃花潭李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IRIS-UKIYOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46311295@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -87,18 +67,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,18 +96,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,35 +425,33 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -473,8 +464,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -487,50 +478,13 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>shihanbing2016</t>
+  </si>
+  <si>
+    <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
   </si>
   <si>
     <t>46311295@qq.com</t>
@@ -425,13 +428,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -464,8 +466,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -473,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -1,91 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TEMP\untitled111111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6495"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="history" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公众号</t>
-  </si>
-  <si>
-    <t>微信号</t>
-  </si>
-  <si>
-    <t>最新文章</t>
-  </si>
-  <si>
-    <t>发表时间</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>时寒冰</t>
-  </si>
-  <si>
-    <t>shihanbing2016</t>
-  </si>
-  <si>
-    <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
-  </si>
-  <si>
-    <t>46311295@qq.com</t>
-  </si>
-  <si>
-    <t>桃花潭李白</t>
-  </si>
-  <si>
-    <t>IRIS-UKIYOE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,43 +47,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,72 +354,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="43.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>公众号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>微信号</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新文章</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>发表时间</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>46311295@qq.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>46311295@qq.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>公众号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>微信号</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新文章</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>发表时间</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>46311295@qq.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>46311295@qq.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:14:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:15:12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:18:34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:19:19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:20:54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:21:38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:24:35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:25:16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>时寒冰</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>shihanbing2016</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:26:50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2020-06-24 15:27:32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -447,7 +447,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46311295@qq.com</t>
+          <t>88ahu@163.com</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,6 +814,110 @@
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2020-06-24 18:11:14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2020-06-24 18:13:15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2020-06-24 18:16:34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>桃花潭李白</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IRIS-UKIYOE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>人为什么会作恶,我们如何面对恶</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2020-06-28 10:52:10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/WX_File.xlsx
+++ b/WX_File.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,49 +405,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>时寒冰</t>
+          <t>超智能体</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>shihanbing2016</t>
+          <t>YJango</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>时寒冰时寒冰:王振华猥亵案遗漏一罪导致轻判</t>
+          <t>我的视频都被别人申请了原创</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>46311295@qq.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>桃花潭李白</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IRIS-UKIYOE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>人为什么会作恶,我们如何面对恶</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>88ahu@163.com</t>
         </is>
       </c>
     </row>
@@ -462,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,6 +892,32 @@
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>超智能体</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>YJango</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>超智能体我的视频都被别人申请了原创</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2020-07-08 14:23:44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
